--- a/processedFiles/dataTotalsmodel2.xlsx
+++ b/processedFiles/dataTotalsmodel2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
   <si>
     <t>File</t>
   </si>
@@ -262,13 +262,58 @@
   </si>
   <si>
     <t>Min</t>
+  </si>
+  <si>
+    <t>Ereg</t>
+  </si>
+  <si>
+    <t>Ereg^2</t>
+  </si>
+  <si>
+    <t>Ep1</t>
+  </si>
+  <si>
+    <t>Ep1^2</t>
+  </si>
+  <si>
+    <t>Ep2</t>
+  </si>
+  <si>
+    <t>Ep2^2</t>
+  </si>
+  <si>
+    <t>Enp</t>
+  </si>
+  <si>
+    <t>Enp^2</t>
+  </si>
+  <si>
+    <t>Epsi</t>
+  </si>
+  <si>
+    <t>Epsi^2</t>
+  </si>
+  <si>
+    <t>Ephi</t>
+  </si>
+  <si>
+    <t>Ephi^2</t>
+  </si>
+  <si>
+    <t>Esa</t>
+  </si>
+  <si>
+    <t>Esa^2</t>
+  </si>
+  <si>
+    <t>Best Z Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -292,6 +337,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -310,17 +362,71 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -650,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:AE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -662,7 +768,7 @@
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -714,8 +820,50 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -767,8 +915,50 @@
       <c r="Q2">
         <v>0.61582545454500004</v>
       </c>
+      <c r="R2">
+        <v>3.7509765599999998</v>
+      </c>
+      <c r="S2">
+        <v>0.99316406000000002</v>
+      </c>
+      <c r="T2">
+        <v>0.35449218999999998</v>
+      </c>
+      <c r="U2">
+        <v>1.984375</v>
+      </c>
+      <c r="V2">
+        <v>3.57617188</v>
+      </c>
+      <c r="W2">
+        <v>1.04199219</v>
+      </c>
+      <c r="X2">
+        <v>3.62695312</v>
+      </c>
+      <c r="Y2">
+        <v>3.3984375</v>
+      </c>
+      <c r="Z2">
+        <v>3.2861328099999998</v>
+      </c>
+      <c r="AA2">
+        <v>1.72363281</v>
+      </c>
+      <c r="AB2">
+        <v>3.8798828099999998</v>
+      </c>
+      <c r="AC2">
+        <v>0.25292968999999998</v>
+      </c>
+      <c r="AD2">
+        <v>1.78613281</v>
+      </c>
+      <c r="AE2">
+        <v>0.109375</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -820,8 +1010,50 @@
       <c r="Q3">
         <v>0.61326909090899995</v>
       </c>
+      <c r="R3">
+        <v>1.48535156</v>
+      </c>
+      <c r="S3">
+        <v>0.83691406000000002</v>
+      </c>
+      <c r="T3">
+        <v>1.4921875</v>
+      </c>
+      <c r="U3">
+        <v>0.265625</v>
+      </c>
+      <c r="V3">
+        <v>0.23046875</v>
+      </c>
+      <c r="W3">
+        <v>2.96679688</v>
+      </c>
+      <c r="X3">
+        <v>3.1015625</v>
+      </c>
+      <c r="Y3">
+        <v>3.1787109400000002</v>
+      </c>
+      <c r="Z3">
+        <v>3.359375</v>
+      </c>
+      <c r="AA3">
+        <v>2.1201171900000002</v>
+      </c>
+      <c r="AB3">
+        <v>2.71289062</v>
+      </c>
+      <c r="AC3">
+        <v>8.59375E-2</v>
+      </c>
+      <c r="AD3">
+        <v>0.69335937999999997</v>
+      </c>
+      <c r="AE3">
+        <v>5.2734379999999997E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -873,8 +1105,50 @@
       <c r="Q4">
         <v>0.61908363636399999</v>
       </c>
+      <c r="R4">
+        <v>0.39257811999999997</v>
+      </c>
+      <c r="S4">
+        <v>3.7021484400000002</v>
+      </c>
+      <c r="T4">
+        <v>2.2666015599999998</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>1.87011719</v>
+      </c>
+      <c r="W4">
+        <v>1.39648438</v>
+      </c>
+      <c r="X4">
+        <v>3.0615234400000002</v>
+      </c>
+      <c r="Y4">
+        <v>3.9970703099999998</v>
+      </c>
+      <c r="Z4">
+        <v>5.859375E-2</v>
+      </c>
+      <c r="AA4">
+        <v>2.921875</v>
+      </c>
+      <c r="AB4">
+        <v>3.59375</v>
+      </c>
+      <c r="AC4">
+        <v>9.0820310000000001E-2</v>
+      </c>
+      <c r="AD4">
+        <v>1.31640625</v>
+      </c>
+      <c r="AE4">
+        <v>8.203125E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -926,8 +1200,50 @@
       <c r="Q5">
         <v>0.61966272727299998</v>
       </c>
+      <c r="R5">
+        <v>2.9140625</v>
+      </c>
+      <c r="S5">
+        <v>1.078125</v>
+      </c>
+      <c r="T5">
+        <v>2.9873046900000002</v>
+      </c>
+      <c r="U5">
+        <v>2.34765625</v>
+      </c>
+      <c r="V5">
+        <v>1.34082031</v>
+      </c>
+      <c r="W5">
+        <v>1.03027344</v>
+      </c>
+      <c r="X5">
+        <v>0.40625</v>
+      </c>
+      <c r="Y5">
+        <v>3.6220703099999998</v>
+      </c>
+      <c r="Z5">
+        <v>2.55078125</v>
+      </c>
+      <c r="AA5">
+        <v>0.87695312000000003</v>
+      </c>
+      <c r="AB5">
+        <v>0.79980468999999998</v>
+      </c>
+      <c r="AC5">
+        <v>5.1757810000000001E-2</v>
+      </c>
+      <c r="AD5">
+        <v>1.23242188</v>
+      </c>
+      <c r="AE5">
+        <v>0.10644531</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -979,8 +1295,50 @@
       <c r="Q6">
         <v>0.61482272727300002</v>
       </c>
+      <c r="R6">
+        <v>1.73339844</v>
+      </c>
+      <c r="S6">
+        <v>2.94921875</v>
+      </c>
+      <c r="T6">
+        <v>3.5859375</v>
+      </c>
+      <c r="U6">
+        <v>2.91796875</v>
+      </c>
+      <c r="V6">
+        <v>3.8955078099999998</v>
+      </c>
+      <c r="W6">
+        <v>3.70703125</v>
+      </c>
+      <c r="X6">
+        <v>2.8232421900000002</v>
+      </c>
+      <c r="Y6">
+        <v>2.9970703099999998</v>
+      </c>
+      <c r="Z6">
+        <v>0.88867187999999997</v>
+      </c>
+      <c r="AA6">
+        <v>3.80273438</v>
+      </c>
+      <c r="AB6">
+        <v>1.49707031</v>
+      </c>
+      <c r="AC6">
+        <v>1.074219E-2</v>
+      </c>
+      <c r="AD6">
+        <v>0.61425781000000002</v>
+      </c>
+      <c r="AE6">
+        <v>6.5429689999999999E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1032,8 +1390,50 @@
       <c r="Q7">
         <v>0.61589272727300004</v>
       </c>
+      <c r="R7">
+        <v>2.73046875</v>
+      </c>
+      <c r="S7">
+        <v>3.5791015599999998</v>
+      </c>
+      <c r="T7">
+        <v>1.80859375</v>
+      </c>
+      <c r="U7">
+        <v>3.6005859400000002</v>
+      </c>
+      <c r="V7">
+        <v>1.25683594</v>
+      </c>
+      <c r="W7">
+        <v>3.1630859400000002</v>
+      </c>
+      <c r="X7">
+        <v>1.16992188</v>
+      </c>
+      <c r="Y7">
+        <v>3.9677734400000002</v>
+      </c>
+      <c r="Z7">
+        <v>2.60351562</v>
+      </c>
+      <c r="AA7">
+        <v>1.37304688</v>
+      </c>
+      <c r="AB7">
+        <v>0.87207031000000002</v>
+      </c>
+      <c r="AC7">
+        <v>5.2734379999999997E-2</v>
+      </c>
+      <c r="AD7">
+        <v>0.93945312000000003</v>
+      </c>
+      <c r="AE7">
+        <v>0.13769530999999999</v>
+      </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1085,8 +1485,50 @@
       <c r="Q8">
         <v>0.61783454545500005</v>
       </c>
+      <c r="R8">
+        <v>1.09570312</v>
+      </c>
+      <c r="S8">
+        <v>0.72851562000000003</v>
+      </c>
+      <c r="T8">
+        <v>1.60253906</v>
+      </c>
+      <c r="U8">
+        <v>3.77148438</v>
+      </c>
+      <c r="V8">
+        <v>1.16796875</v>
+      </c>
+      <c r="W8">
+        <v>0.39648438000000003</v>
+      </c>
+      <c r="X8">
+        <v>2.68945312</v>
+      </c>
+      <c r="Y8">
+        <v>2.97265625</v>
+      </c>
+      <c r="Z8">
+        <v>1.60742188</v>
+      </c>
+      <c r="AA8">
+        <v>1.58007812</v>
+      </c>
+      <c r="AB8">
+        <v>3.6533203099999998</v>
+      </c>
+      <c r="AC8">
+        <v>4.1992189999999999E-2</v>
+      </c>
+      <c r="AD8">
+        <v>0.78808593999999998</v>
+      </c>
+      <c r="AE8">
+        <v>0.12988280999999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1138,8 +1580,50 @@
       <c r="Q9">
         <v>0.62032363636400001</v>
       </c>
+      <c r="R9">
+        <v>2.4375</v>
+      </c>
+      <c r="S9">
+        <v>3.0361328099999998</v>
+      </c>
+      <c r="T9">
+        <v>3.11523438</v>
+      </c>
+      <c r="U9">
+        <v>2.2998046900000002</v>
+      </c>
+      <c r="V9">
+        <v>3.32421875</v>
+      </c>
+      <c r="W9">
+        <v>3.3154296900000002</v>
+      </c>
+      <c r="X9">
+        <v>1.47363281</v>
+      </c>
+      <c r="Y9">
+        <v>3.80664062</v>
+      </c>
+      <c r="Z9">
+        <v>2.2265625</v>
+      </c>
+      <c r="AA9">
+        <v>0.97753906000000002</v>
+      </c>
+      <c r="AB9">
+        <v>1.19921875</v>
+      </c>
+      <c r="AC9">
+        <v>1.953125E-2</v>
+      </c>
+      <c r="AD9">
+        <v>1.35644531</v>
+      </c>
+      <c r="AE9">
+        <v>0.20703125</v>
+      </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1191,8 +1675,50 @@
       <c r="Q10">
         <v>0.61219909090900004</v>
       </c>
+      <c r="R10">
+        <v>3.7734375</v>
+      </c>
+      <c r="S10">
+        <v>1.54785156</v>
+      </c>
+      <c r="T10">
+        <v>1.23242188</v>
+      </c>
+      <c r="U10">
+        <v>2.1435546900000002</v>
+      </c>
+      <c r="V10">
+        <v>0.84863281000000002</v>
+      </c>
+      <c r="W10">
+        <v>0.81347656000000002</v>
+      </c>
+      <c r="X10">
+        <v>1.14941406</v>
+      </c>
+      <c r="Y10">
+        <v>2.8876953099999998</v>
+      </c>
+      <c r="Z10">
+        <v>3.2216796900000002</v>
+      </c>
+      <c r="AA10">
+        <v>2.7822265599999998</v>
+      </c>
+      <c r="AB10">
+        <v>3.16601562</v>
+      </c>
+      <c r="AC10">
+        <v>1.171875E-2</v>
+      </c>
+      <c r="AD10">
+        <v>0.60546875</v>
+      </c>
+      <c r="AE10">
+        <v>5.859375E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1244,8 +1770,50 @@
       <c r="Q11">
         <v>0.60801818181800005</v>
       </c>
+      <c r="R11">
+        <v>3.26171875</v>
+      </c>
+      <c r="S11">
+        <v>0.24511719000000001</v>
+      </c>
+      <c r="T11">
+        <v>1.75097656</v>
+      </c>
+      <c r="U11">
+        <v>2.3408203099999998</v>
+      </c>
+      <c r="V11">
+        <v>0.76660156000000002</v>
+      </c>
+      <c r="W11">
+        <v>2.5068359400000002</v>
+      </c>
+      <c r="X11">
+        <v>2.9658203099999998</v>
+      </c>
+      <c r="Y11">
+        <v>3.2744140599999998</v>
+      </c>
+      <c r="Z11">
+        <v>2.8994140599999998</v>
+      </c>
+      <c r="AA11">
+        <v>3.2021484400000002</v>
+      </c>
+      <c r="AB11">
+        <v>0.23144530999999999</v>
+      </c>
+      <c r="AC11">
+        <v>4.7851560000000001E-2</v>
+      </c>
+      <c r="AD11">
+        <v>0.64746093999999998</v>
+      </c>
+      <c r="AE11">
+        <v>1.269531E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1297,8 +1865,50 @@
       <c r="Q12">
         <v>0.61912090909100004</v>
       </c>
+      <c r="R12">
+        <v>0.81542968999999998</v>
+      </c>
+      <c r="S12">
+        <v>6.1523439999999999E-2</v>
+      </c>
+      <c r="T12">
+        <v>2.625</v>
+      </c>
+      <c r="U12">
+        <v>0.59179687999999997</v>
+      </c>
+      <c r="V12">
+        <v>0.35546875</v>
+      </c>
+      <c r="W12">
+        <v>0.98632812000000003</v>
+      </c>
+      <c r="X12">
+        <v>0.51171875</v>
+      </c>
+      <c r="Y12">
+        <v>3.0234375</v>
+      </c>
+      <c r="Z12">
+        <v>1.57714844</v>
+      </c>
+      <c r="AA12">
+        <v>2.80859375</v>
+      </c>
+      <c r="AB12">
+        <v>1.64453125</v>
+      </c>
+      <c r="AC12">
+        <v>5.46875E-2</v>
+      </c>
+      <c r="AD12">
+        <v>1.01464844</v>
+      </c>
+      <c r="AE12">
+        <v>8.3007810000000001E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1350,8 +1960,50 @@
       <c r="Q13">
         <v>0.617615454545</v>
       </c>
+      <c r="R13" s="1">
+        <v>2.1474609400000002</v>
+      </c>
+      <c r="S13" s="1">
+        <v>3.5380859400000002</v>
+      </c>
+      <c r="T13" s="1">
+        <v>2.9296875E-3</v>
+      </c>
+      <c r="U13" s="1">
+        <v>3.51367188</v>
+      </c>
+      <c r="V13" s="1">
+        <v>5.76171875E-2</v>
+      </c>
+      <c r="W13" s="1">
+        <v>2.0439453099999998</v>
+      </c>
+      <c r="X13" s="1">
+        <v>3.8427734400000002</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>2.3994140599999998</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>2.16601562</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>1.84375</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>3.515625E-2</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>4.00390625E-2</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0.671875</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>6.640625E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1403,8 +2055,50 @@
       <c r="Q14">
         <v>0.61726272727300002</v>
       </c>
+      <c r="R14">
+        <v>1.00683594</v>
+      </c>
+      <c r="S14">
+        <v>1.40917969</v>
+      </c>
+      <c r="T14">
+        <v>0.58886718999999998</v>
+      </c>
+      <c r="U14">
+        <v>0.26757811999999997</v>
+      </c>
+      <c r="V14">
+        <v>2.54101562</v>
+      </c>
+      <c r="W14">
+        <v>1.45800781</v>
+      </c>
+      <c r="X14">
+        <v>2.8134765599999998</v>
+      </c>
+      <c r="Y14">
+        <v>2.0068359400000002</v>
+      </c>
+      <c r="Z14">
+        <v>0.91601562000000003</v>
+      </c>
+      <c r="AA14">
+        <v>2.74609375</v>
+      </c>
+      <c r="AB14">
+        <v>1.27148438</v>
+      </c>
+      <c r="AC14">
+        <v>0.19042969000000001</v>
+      </c>
+      <c r="AD14">
+        <v>0.66894531000000002</v>
+      </c>
+      <c r="AE14">
+        <v>4.3945310000000001E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1456,8 +2150,50 @@
       <c r="Q15">
         <v>0.62367363636399997</v>
       </c>
+      <c r="R15">
+        <v>3.39648438</v>
+      </c>
+      <c r="S15">
+        <v>0.78417968999999998</v>
+      </c>
+      <c r="T15">
+        <v>3.9599609400000002</v>
+      </c>
+      <c r="U15">
+        <v>1.80175781</v>
+      </c>
+      <c r="V15">
+        <v>2.71875</v>
+      </c>
+      <c r="W15">
+        <v>3.0146484400000002</v>
+      </c>
+      <c r="X15">
+        <v>2.6630859400000002</v>
+      </c>
+      <c r="Y15">
+        <v>3.9873046900000002</v>
+      </c>
+      <c r="Z15">
+        <v>3.3076171900000002</v>
+      </c>
+      <c r="AA15">
+        <v>2.8623046900000002</v>
+      </c>
+      <c r="AB15">
+        <v>9.5703120000000003E-2</v>
+      </c>
+      <c r="AC15">
+        <v>1.464844E-2</v>
+      </c>
+      <c r="AD15">
+        <v>1.48046875</v>
+      </c>
+      <c r="AE15">
+        <v>0.15917969000000001</v>
+      </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1509,8 +2245,50 @@
       <c r="Q16">
         <v>0.62298545454499998</v>
       </c>
+      <c r="R16">
+        <v>1.5390625</v>
+      </c>
+      <c r="S16">
+        <v>1.35644531</v>
+      </c>
+      <c r="T16">
+        <v>3.3271484400000002</v>
+      </c>
+      <c r="U16">
+        <v>2.0732421900000002</v>
+      </c>
+      <c r="V16">
+        <v>1.78320312</v>
+      </c>
+      <c r="W16">
+        <v>0.68554687999999997</v>
+      </c>
+      <c r="X16">
+        <v>0.97070312000000003</v>
+      </c>
+      <c r="Y16">
+        <v>3.94140625</v>
+      </c>
+      <c r="Z16">
+        <v>1.765625</v>
+      </c>
+      <c r="AA16">
+        <v>2.3388671900000002</v>
+      </c>
+      <c r="AB16">
+        <v>2.99609375</v>
+      </c>
+      <c r="AC16">
+        <v>0.15722655999999999</v>
+      </c>
+      <c r="AD16">
+        <v>1.43945312</v>
+      </c>
+      <c r="AE16">
+        <v>0.18652344000000001</v>
+      </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -1562,8 +2340,50 @@
       <c r="Q17">
         <v>0.61707000000000001</v>
       </c>
+      <c r="R17">
+        <v>2.5390619999999999E-2</v>
+      </c>
+      <c r="S17">
+        <v>2.30664062</v>
+      </c>
+      <c r="T17">
+        <v>0.43847656000000002</v>
+      </c>
+      <c r="U17">
+        <v>3.04101562</v>
+      </c>
+      <c r="V17">
+        <v>1.25292969</v>
+      </c>
+      <c r="W17">
+        <v>2.18164062</v>
+      </c>
+      <c r="X17">
+        <v>1.79003906</v>
+      </c>
+      <c r="Y17">
+        <v>3.31445312</v>
+      </c>
+      <c r="Z17">
+        <v>0.48242188000000003</v>
+      </c>
+      <c r="AA17">
+        <v>1.13183594</v>
+      </c>
+      <c r="AB17">
+        <v>2.30859375</v>
+      </c>
+      <c r="AC17">
+        <v>0.16699219000000001</v>
+      </c>
+      <c r="AD17">
+        <v>1.74414062</v>
+      </c>
+      <c r="AE17">
+        <v>0.12695312</v>
+      </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1615,8 +2435,50 @@
       <c r="Q18">
         <v>0.62144363636400002</v>
       </c>
+      <c r="R18">
+        <v>1.98632812</v>
+      </c>
+      <c r="S18">
+        <v>0.78125</v>
+      </c>
+      <c r="T18">
+        <v>2.0654296900000002</v>
+      </c>
+      <c r="U18">
+        <v>2.3125</v>
+      </c>
+      <c r="V18">
+        <v>1.75</v>
+      </c>
+      <c r="W18">
+        <v>3.88476562</v>
+      </c>
+      <c r="X18">
+        <v>1.28808594</v>
+      </c>
+      <c r="Y18">
+        <v>2.7900390599999998</v>
+      </c>
+      <c r="Z18">
+        <v>3.0263671900000002</v>
+      </c>
+      <c r="AA18">
+        <v>3.0068359400000002</v>
+      </c>
+      <c r="AB18">
+        <v>2.8564453099999998</v>
+      </c>
+      <c r="AC18">
+        <v>3.90625E-2</v>
+      </c>
+      <c r="AD18">
+        <v>1.13671875</v>
+      </c>
+      <c r="AE18">
+        <v>8.984375E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -1668,8 +2530,50 @@
       <c r="Q19">
         <v>0.61222090909100002</v>
       </c>
+      <c r="R19">
+        <v>0.99023437999999997</v>
+      </c>
+      <c r="S19">
+        <v>1.65820312</v>
+      </c>
+      <c r="T19">
+        <v>3.42773438</v>
+      </c>
+      <c r="U19">
+        <v>0.86035156000000002</v>
+      </c>
+      <c r="V19">
+        <v>2.734375E-2</v>
+      </c>
+      <c r="W19">
+        <v>0.16992188</v>
+      </c>
+      <c r="X19">
+        <v>3.78710938</v>
+      </c>
+      <c r="Y19">
+        <v>3.4560546900000002</v>
+      </c>
+      <c r="Z19">
+        <v>1.48339844</v>
+      </c>
+      <c r="AA19">
+        <v>2.5107421900000002</v>
+      </c>
+      <c r="AB19">
+        <v>3.0478515599999998</v>
+      </c>
+      <c r="AC19">
+        <v>6.8359400000000004E-3</v>
+      </c>
+      <c r="AD19">
+        <v>0.74121093999999998</v>
+      </c>
+      <c r="AE19">
+        <v>4.9804689999999999E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1721,8 +2625,50 @@
       <c r="Q20">
         <v>0.61466454545500004</v>
       </c>
+      <c r="R20">
+        <v>2.7802734400000002</v>
+      </c>
+      <c r="S20">
+        <v>3.5810546900000002</v>
+      </c>
+      <c r="T20">
+        <v>0.49511718999999998</v>
+      </c>
+      <c r="U20">
+        <v>2.4111328099999998</v>
+      </c>
+      <c r="V20">
+        <v>2.0029296900000002</v>
+      </c>
+      <c r="W20">
+        <v>1.13574219</v>
+      </c>
+      <c r="X20">
+        <v>3.8828125</v>
+      </c>
+      <c r="Y20">
+        <v>2.7294921900000002</v>
+      </c>
+      <c r="Z20">
+        <v>1.1875</v>
+      </c>
+      <c r="AA20">
+        <v>1.61816406</v>
+      </c>
+      <c r="AB20">
+        <v>2.5166015599999998</v>
+      </c>
+      <c r="AC20">
+        <v>5.85938E-3</v>
+      </c>
+      <c r="AD20">
+        <v>0.54589843999999998</v>
+      </c>
+      <c r="AE20">
+        <v>7.3242189999999999E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -1774,8 +2720,50 @@
       <c r="Q21">
         <v>0.61842454545500003</v>
       </c>
+      <c r="R21">
+        <v>1.015625</v>
+      </c>
+      <c r="S21">
+        <v>0.45117188000000003</v>
+      </c>
+      <c r="T21">
+        <v>0.62011718999999998</v>
+      </c>
+      <c r="U21">
+        <v>0.36523438000000003</v>
+      </c>
+      <c r="V21">
+        <v>2.79882812</v>
+      </c>
+      <c r="W21">
+        <v>1.71191406</v>
+      </c>
+      <c r="X21">
+        <v>1.19824219</v>
+      </c>
+      <c r="Y21">
+        <v>3.98242188</v>
+      </c>
+      <c r="Z21">
+        <v>1.38671875</v>
+      </c>
+      <c r="AA21">
+        <v>2.85351562</v>
+      </c>
+      <c r="AB21">
+        <v>3.9921875</v>
+      </c>
+      <c r="AC21">
+        <v>4.3945310000000001E-2</v>
+      </c>
+      <c r="AD21">
+        <v>2.0966796900000002</v>
+      </c>
+      <c r="AE21">
+        <v>0.13671875</v>
+      </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -1827,8 +2815,50 @@
       <c r="Q22">
         <v>0.61409545454500003</v>
       </c>
+      <c r="R22">
+        <v>1.83691406</v>
+      </c>
+      <c r="S22">
+        <v>2.0029296900000002</v>
+      </c>
+      <c r="T22">
+        <v>0.79492187999999997</v>
+      </c>
+      <c r="U22">
+        <v>0.59375</v>
+      </c>
+      <c r="V22">
+        <v>1.74804688</v>
+      </c>
+      <c r="W22">
+        <v>3.6748046900000002</v>
+      </c>
+      <c r="X22">
+        <v>2.56835938</v>
+      </c>
+      <c r="Y22">
+        <v>3.52148438</v>
+      </c>
+      <c r="Z22">
+        <v>3.1416015599999998</v>
+      </c>
+      <c r="AA22">
+        <v>2.0712890599999998</v>
+      </c>
+      <c r="AB22">
+        <v>2.42382812</v>
+      </c>
+      <c r="AC22">
+        <v>0.14160155999999999</v>
+      </c>
+      <c r="AD22">
+        <v>0.52832031000000002</v>
+      </c>
+      <c r="AE22">
+        <v>9.4726560000000001E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1880,8 +2910,50 @@
       <c r="Q23">
         <v>0.61845545454499995</v>
       </c>
+      <c r="R23">
+        <v>1.66992188</v>
+      </c>
+      <c r="S23">
+        <v>0.58496093999999998</v>
+      </c>
+      <c r="T23">
+        <v>2.16601562</v>
+      </c>
+      <c r="U23">
+        <v>3.1650390599999998</v>
+      </c>
+      <c r="V23">
+        <v>1.87695312</v>
+      </c>
+      <c r="W23">
+        <v>1.10546875</v>
+      </c>
+      <c r="X23">
+        <v>3.76367188</v>
+      </c>
+      <c r="Y23">
+        <v>2.7744140599999998</v>
+      </c>
+      <c r="Z23">
+        <v>0.45703125</v>
+      </c>
+      <c r="AA23">
+        <v>2.9931640599999998</v>
+      </c>
+      <c r="AB23">
+        <v>2.5703125</v>
+      </c>
+      <c r="AC23">
+        <v>3.2226560000000001E-2</v>
+      </c>
+      <c r="AD23">
+        <v>1.41015625</v>
+      </c>
+      <c r="AE23">
+        <v>8.4960939999999999E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -1933,8 +3005,50 @@
       <c r="Q24">
         <v>0.61579909090899998</v>
       </c>
+      <c r="R24">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="S24">
+        <v>1.6953125</v>
+      </c>
+      <c r="T24">
+        <v>1.79296875</v>
+      </c>
+      <c r="U24">
+        <v>3.3359375</v>
+      </c>
+      <c r="V24">
+        <v>1.52441406</v>
+      </c>
+      <c r="W24">
+        <v>0.12011719</v>
+      </c>
+      <c r="X24">
+        <v>2.14648438</v>
+      </c>
+      <c r="Y24">
+        <v>2.5</v>
+      </c>
+      <c r="Z24">
+        <v>1.50585938</v>
+      </c>
+      <c r="AA24">
+        <v>3.4140625</v>
+      </c>
+      <c r="AB24">
+        <v>0.87988281000000002</v>
+      </c>
+      <c r="AC24">
+        <v>4.1992189999999999E-2</v>
+      </c>
+      <c r="AD24">
+        <v>0.54492187999999997</v>
+      </c>
+      <c r="AE24">
+        <v>9.765625E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -1986,8 +3100,50 @@
       <c r="Q25">
         <v>0.61925363636399999</v>
       </c>
+      <c r="R25">
+        <v>2.54882812</v>
+      </c>
+      <c r="S25">
+        <v>3.0322265599999998</v>
+      </c>
+      <c r="T25">
+        <v>1.98632812</v>
+      </c>
+      <c r="U25">
+        <v>2.8525390599999998</v>
+      </c>
+      <c r="V25">
+        <v>2.2451171900000002</v>
+      </c>
+      <c r="W25">
+        <v>1.37792969</v>
+      </c>
+      <c r="X25">
+        <v>2.109375</v>
+      </c>
+      <c r="Y25">
+        <v>3.97265625</v>
+      </c>
+      <c r="Z25">
+        <v>2.04492188</v>
+      </c>
+      <c r="AA25">
+        <v>0.54296875</v>
+      </c>
+      <c r="AB25">
+        <v>3.0185546900000002</v>
+      </c>
+      <c r="AC25">
+        <v>0.18261719000000001</v>
+      </c>
+      <c r="AD25">
+        <v>1.23632812</v>
+      </c>
+      <c r="AE25">
+        <v>0.11425781</v>
+      </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2039,8 +3195,50 @@
       <c r="Q26">
         <v>0.62367545454499995</v>
       </c>
+      <c r="R26">
+        <v>1.76464844</v>
+      </c>
+      <c r="S26">
+        <v>2.5859375</v>
+      </c>
+      <c r="T26">
+        <v>2.1865234400000002</v>
+      </c>
+      <c r="U26">
+        <v>1.86523438</v>
+      </c>
+      <c r="V26">
+        <v>1.02148438</v>
+      </c>
+      <c r="W26">
+        <v>1.35742188</v>
+      </c>
+      <c r="X26">
+        <v>2.78710938</v>
+      </c>
+      <c r="Y26">
+        <v>2.67578125</v>
+      </c>
+      <c r="Z26">
+        <v>1.80566406</v>
+      </c>
+      <c r="AA26">
+        <v>3.0546875</v>
+      </c>
+      <c r="AB26">
+        <v>3.5341796900000002</v>
+      </c>
+      <c r="AC26">
+        <v>1.6601560000000001E-2</v>
+      </c>
+      <c r="AD26">
+        <v>1.01269531</v>
+      </c>
+      <c r="AE26">
+        <v>0.10546875</v>
+      </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -2092,8 +3290,50 @@
       <c r="Q27">
         <v>0.62049090909100002</v>
       </c>
+      <c r="R27">
+        <v>0.79199218999999998</v>
+      </c>
+      <c r="S27">
+        <v>3.4736328099999998</v>
+      </c>
+      <c r="T27">
+        <v>2.29101562</v>
+      </c>
+      <c r="U27">
+        <v>1.45214844</v>
+      </c>
+      <c r="V27">
+        <v>1.26953125</v>
+      </c>
+      <c r="W27">
+        <v>3.2470703099999998</v>
+      </c>
+      <c r="X27">
+        <v>2.2744140599999998</v>
+      </c>
+      <c r="Y27">
+        <v>2.89648438</v>
+      </c>
+      <c r="Z27">
+        <v>0.32617188000000003</v>
+      </c>
+      <c r="AA27">
+        <v>2.2802734400000002</v>
+      </c>
+      <c r="AB27">
+        <v>1.44335938</v>
+      </c>
+      <c r="AC27">
+        <v>3.3203120000000003E-2</v>
+      </c>
+      <c r="AD27">
+        <v>0.99414062000000003</v>
+      </c>
+      <c r="AE27">
+        <v>8.984375E-2</v>
+      </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -2145,8 +3385,50 @@
       <c r="Q28">
         <v>0.61777363636399996</v>
       </c>
+      <c r="R28">
+        <v>0.82421875</v>
+      </c>
+      <c r="S28">
+        <v>3.7763671900000002</v>
+      </c>
+      <c r="T28">
+        <v>1.06445312</v>
+      </c>
+      <c r="U28">
+        <v>2.2197265599999998</v>
+      </c>
+      <c r="V28">
+        <v>2.7880859400000002</v>
+      </c>
+      <c r="W28">
+        <v>1.59570312</v>
+      </c>
+      <c r="X28">
+        <v>3.60546875</v>
+      </c>
+      <c r="Y28">
+        <v>3.8974609400000002</v>
+      </c>
+      <c r="Z28">
+        <v>3.5439453099999998</v>
+      </c>
+      <c r="AA28">
+        <v>3.4130859400000002</v>
+      </c>
+      <c r="AB28">
+        <v>2.63867188</v>
+      </c>
+      <c r="AC28">
+        <v>0.12011719</v>
+      </c>
+      <c r="AD28">
+        <v>1.03320312</v>
+      </c>
+      <c r="AE28">
+        <v>0.17675780999999999</v>
+      </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -2198,8 +3480,50 @@
       <c r="Q29">
         <v>0.61222818181799998</v>
       </c>
+      <c r="R29">
+        <v>1.94433594</v>
+      </c>
+      <c r="S29">
+        <v>3.15039062</v>
+      </c>
+      <c r="T29">
+        <v>3.8896484400000002</v>
+      </c>
+      <c r="U29">
+        <v>3.28320312</v>
+      </c>
+      <c r="V29">
+        <v>0.36035156000000002</v>
+      </c>
+      <c r="W29">
+        <v>0.66699218999999998</v>
+      </c>
+      <c r="X29">
+        <v>1.23925781</v>
+      </c>
+      <c r="Y29">
+        <v>3.7724609400000002</v>
+      </c>
+      <c r="Z29">
+        <v>3.47851562</v>
+      </c>
+      <c r="AA29">
+        <v>3.0048828099999998</v>
+      </c>
+      <c r="AB29">
+        <v>3.9267578099999998</v>
+      </c>
+      <c r="AC29">
+        <v>1.464844E-2</v>
+      </c>
+      <c r="AD29">
+        <v>0.86328125</v>
+      </c>
+      <c r="AE29">
+        <v>4.6875E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -2251,8 +3575,50 @@
       <c r="Q30">
         <v>0.60918545454499995</v>
       </c>
+      <c r="R30">
+        <v>2.05273438</v>
+      </c>
+      <c r="S30">
+        <v>2.41796875</v>
+      </c>
+      <c r="T30">
+        <v>2.46289062</v>
+      </c>
+      <c r="U30">
+        <v>3.23632812</v>
+      </c>
+      <c r="V30">
+        <v>3.7607421900000002</v>
+      </c>
+      <c r="W30">
+        <v>2.5390625</v>
+      </c>
+      <c r="X30">
+        <v>0.171875</v>
+      </c>
+      <c r="Y30">
+        <v>3.7236328099999998</v>
+      </c>
+      <c r="Z30">
+        <v>0.82324218999999998</v>
+      </c>
+      <c r="AA30">
+        <v>3.6181640599999998</v>
+      </c>
+      <c r="AB30">
+        <v>1.79199219</v>
+      </c>
+      <c r="AC30">
+        <v>0.11523438</v>
+      </c>
+      <c r="AD30">
+        <v>0.73046875</v>
+      </c>
+      <c r="AE30">
+        <v>4.0039060000000001E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -2304,8 +3670,50 @@
       <c r="Q31">
         <v>0.62121454545499999</v>
       </c>
+      <c r="R31">
+        <v>1.73925781</v>
+      </c>
+      <c r="S31">
+        <v>0.25097656000000002</v>
+      </c>
+      <c r="T31">
+        <v>1.11425781</v>
+      </c>
+      <c r="U31">
+        <v>1.64550781</v>
+      </c>
+      <c r="V31">
+        <v>3.0693359400000002</v>
+      </c>
+      <c r="W31">
+        <v>2.9033203099999998</v>
+      </c>
+      <c r="X31">
+        <v>3.51953125</v>
+      </c>
+      <c r="Y31">
+        <v>3.2607421900000002</v>
+      </c>
+      <c r="Z31">
+        <v>3.5869140599999998</v>
+      </c>
+      <c r="AA31">
+        <v>0.41796875</v>
+      </c>
+      <c r="AB31">
+        <v>2.125</v>
+      </c>
+      <c r="AC31">
+        <v>0.13671875</v>
+      </c>
+      <c r="AD31">
+        <v>1.04199219</v>
+      </c>
+      <c r="AE31">
+        <v>0.10351562</v>
+      </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:31">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -2314,63 +3722,119 @@
         <v>-3.1274027416666659</v>
       </c>
       <c r="D33">
-        <f>AVERAGE(D2:D31)</f>
+        <f t="shared" ref="D33:Q33" si="0">AVERAGE(D2:D31)</f>
         <v>-0.62036309662229994</v>
       </c>
       <c r="E33">
-        <f>AVERAGE(E2:E31)</f>
+        <f t="shared" si="0"/>
         <v>0.67452516129043361</v>
       </c>
       <c r="F33">
-        <f>AVERAGE(F2:F31)</f>
+        <f t="shared" si="0"/>
         <v>-1.0998250650000001</v>
       </c>
       <c r="G33">
-        <f>AVERAGE(G2:G31)</f>
+        <f t="shared" si="0"/>
         <v>-0.89617095342523323</v>
       </c>
       <c r="H33">
-        <f>AVERAGE(H2:H31)</f>
+        <f t="shared" si="0"/>
         <v>0.77430700000000008</v>
       </c>
       <c r="I33">
-        <f>AVERAGE(I2:I31)</f>
+        <f t="shared" si="0"/>
         <v>-2.9539310246666668</v>
       </c>
       <c r="J33">
-        <f>AVERAGE(J2:J31)</f>
+        <f t="shared" si="0"/>
         <v>-0.47020218209556669</v>
       </c>
       <c r="K33">
-        <f>AVERAGE(K2:K31)</f>
+        <f t="shared" si="0"/>
         <v>0.52113718390793329</v>
       </c>
       <c r="L33">
-        <f>AVERAGE(L2:L31)</f>
+        <f t="shared" si="0"/>
         <v>-2.4801322529999994</v>
       </c>
       <c r="M33">
-        <f>AVERAGE(M2:M31)</f>
+        <f t="shared" si="0"/>
         <v>-0.51186272597319993</v>
       </c>
       <c r="N33">
-        <f>AVERAGE(N2:N31)</f>
+        <f t="shared" si="0"/>
         <v>0.57242875000000004</v>
       </c>
       <c r="O33">
-        <f>AVERAGE(O2:O31)</f>
+        <f t="shared" si="0"/>
         <v>-5.9757226243333319</v>
       </c>
       <c r="P33">
-        <f>AVERAGE(P2:P31)</f>
+        <f t="shared" si="0"/>
         <v>0.56006913696953331</v>
       </c>
       <c r="Q33">
-        <f>AVERAGE(Q2:Q31)</f>
+        <f t="shared" si="0"/>
         <v>0.6171195151515666</v>
       </c>
+      <c r="R33">
+        <f t="shared" ref="R33:AE33" si="1">AVERAGE(R2:R31)</f>
+        <v>1.8151692709999998</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="1"/>
+        <v>1.9198242183333329</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="1"/>
+        <v>1.916536458583334</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="1"/>
+        <v>2.1853190103333331</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="1"/>
+        <v>1.7743164062500001</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="1"/>
+        <v>1.8732747403333334</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="1"/>
+        <v>2.3133789066666659</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="1"/>
+        <v>3.2909505210000005</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="1"/>
+        <v>2.023828125333333</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="1"/>
+        <v>2.3297200520000003</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="1"/>
+        <v>2.2240885409999995</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="1"/>
+        <v>7.4023438083333337E-2</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="1"/>
+        <v>1.0305013016666666</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="1"/>
+        <v>9.7721353666666649E-2</v>
+      </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:31">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -2379,63 +3843,119 @@
         <v>0.16877405099193951</v>
       </c>
       <c r="D34">
-        <f>STDEV(D2:D31)</f>
+        <f t="shared" ref="D34:Q34" si="2">STDEV(D2:D31)</f>
         <v>9.4352540467360288E-3</v>
       </c>
       <c r="E34">
-        <f>STDEV(E2:E31)</f>
+        <f t="shared" si="2"/>
         <v>2.8088766915816427E-3</v>
       </c>
       <c r="F34">
-        <f>STDEV(F2:F31)</f>
+        <f t="shared" si="2"/>
         <v>6.593881824145971E-2</v>
       </c>
       <c r="G34">
-        <f>STDEV(G2:G31)</f>
+        <f t="shared" si="2"/>
         <v>3.6185412108415606E-3</v>
       </c>
       <c r="H34">
-        <f>STDEV(H2:H31)</f>
+        <f t="shared" si="2"/>
         <v>2.8770233060314808E-3</v>
       </c>
       <c r="I34">
-        <f>STDEV(I2:I31)</f>
+        <f t="shared" si="2"/>
         <v>0.1604154940913364</v>
       </c>
       <c r="J34">
-        <f>STDEV(J2:J31)</f>
+        <f t="shared" si="2"/>
         <v>3.9501194405325343E-3</v>
       </c>
       <c r="K34">
-        <f>STDEV(K2:K31)</f>
+        <f t="shared" si="2"/>
         <v>3.2917909458022808E-3</v>
       </c>
       <c r="L34">
-        <f>STDEV(L2:L31)</f>
+        <f t="shared" si="2"/>
         <v>0.24444523253266795</v>
       </c>
       <c r="M34">
-        <f>STDEV(M2:M31)</f>
+        <f t="shared" si="2"/>
         <v>5.6903391170701366E-3</v>
       </c>
       <c r="N34">
-        <f>STDEV(N2:N31)</f>
+        <f t="shared" si="2"/>
         <v>3.8638880469034739E-3</v>
       </c>
       <c r="O34">
-        <f>STDEV(O2:O31)</f>
+        <f t="shared" si="2"/>
         <v>0.44124533439532981</v>
       </c>
       <c r="P34">
-        <f>STDEV(P2:P31)</f>
+        <f t="shared" si="2"/>
         <v>1.0778135678403408E-2</v>
       </c>
       <c r="Q34">
-        <f>STDEV(Q2:Q31)</f>
+        <f t="shared" si="2"/>
         <v>3.9789936070810843E-3</v>
       </c>
+      <c r="R34">
+        <f t="shared" ref="R34:AE34" si="3">STDEV(R2:R31)</f>
+        <v>1.02618958590006</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="3"/>
+        <v>1.2266801767999969</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="3"/>
+        <v>1.1159826237229216</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="3"/>
+        <v>1.0508426409364926</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="3"/>
+        <v>1.1121567005721136</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="3"/>
+        <v>1.1340262723730627</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="3"/>
+        <v>1.1299956725394054</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="3"/>
+        <v>0.55505773373593892</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="3"/>
+        <v>1.0940575845824303</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="3"/>
+        <v>0.93386094199321346</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="3"/>
+        <v>1.1867353390636448</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="3"/>
+        <v>6.6119098482200087E-2</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="3"/>
+        <v>0.410233187045421</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="3"/>
+        <v>4.5754509624577458E-2</v>
+      </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -2444,63 +3964,119 @@
         <v>-2.8529825899999999</v>
       </c>
       <c r="D35">
-        <f>MAX(D2:D31)</f>
+        <f t="shared" ref="D35:Q35" si="4">MAX(D2:D31)</f>
         <v>-0.59537708423500002</v>
       </c>
       <c r="E35">
-        <f>MAX(E2:E31)</f>
+        <f t="shared" si="4"/>
         <v>0.67828790322599997</v>
       </c>
       <c r="F35">
-        <f>MAX(F2:F31)</f>
+        <f t="shared" si="4"/>
         <v>-0.98913417000000003</v>
       </c>
       <c r="G35">
-        <f>MAX(G2:G31)</f>
+        <f t="shared" si="4"/>
         <v>-0.88857611829799998</v>
       </c>
       <c r="H35">
-        <f>MAX(H2:H31)</f>
+        <f t="shared" si="4"/>
         <v>0.77841000000000005</v>
       </c>
       <c r="I35">
-        <f>MAX(I2:I31)</f>
+        <f t="shared" si="4"/>
         <v>-2.6619967500000001</v>
       </c>
       <c r="J35">
-        <f>MAX(J2:J31)</f>
+        <f t="shared" si="4"/>
         <v>-0.46035569552200001</v>
       </c>
       <c r="K35">
-        <f>MAX(K2:K31)</f>
+        <f t="shared" si="4"/>
         <v>0.52867758620700001</v>
       </c>
       <c r="L35">
-        <f>MAX(L2:L31)</f>
+        <f t="shared" si="4"/>
         <v>-2.0454971</v>
       </c>
       <c r="M35">
-        <f>MAX(M2:M31)</f>
+        <f t="shared" si="4"/>
         <v>-0.50157485603600005</v>
       </c>
       <c r="N35">
-        <f>MAX(N2:N31)</f>
+        <f t="shared" si="4"/>
         <v>0.57918749999999997</v>
       </c>
       <c r="O35">
-        <f>MAX(O2:O31)</f>
+        <f t="shared" si="4"/>
         <v>-5.2753620999999997</v>
       </c>
       <c r="P35">
-        <f>MAX(P2:P31)</f>
+        <f t="shared" si="4"/>
         <v>0.57177306297399999</v>
       </c>
       <c r="Q35">
-        <f>MAX(Q2:Q31)</f>
+        <f t="shared" si="4"/>
         <v>0.62367545454499995</v>
       </c>
+      <c r="R35">
+        <f t="shared" ref="R35:AE35" si="5">MAX(R2:R31)</f>
+        <v>3.7734375</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="5"/>
+        <v>3.7763671900000002</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="5"/>
+        <v>3.9599609400000002</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="5"/>
+        <v>3.77148438</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="5"/>
+        <v>3.8955078099999998</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="5"/>
+        <v>3.88476562</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="5"/>
+        <v>3.8828125</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="5"/>
+        <v>3.9970703099999998</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="5"/>
+        <v>3.5869140599999998</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="5"/>
+        <v>3.80273438</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="5"/>
+        <v>3.9921875</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="5"/>
+        <v>0.25292968999999998</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="5"/>
+        <v>2.0966796900000002</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="5"/>
+        <v>0.20703125</v>
+      </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:31">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -2509,60 +4085,216 @@
         <v>-3.44313527</v>
       </c>
       <c r="D36">
-        <f>MIN(D2:D31)</f>
+        <f t="shared" ref="D36:Q36" si="6">MIN(D2:D31)</f>
         <v>-0.631016513384</v>
       </c>
       <c r="E36">
-        <f>MIN(E2:E31)</f>
+        <f t="shared" si="6"/>
         <v>0.66861290322599998</v>
       </c>
       <c r="F36">
-        <f>MIN(F2:F31)</f>
+        <f t="shared" si="6"/>
         <v>-1.2693911499999999</v>
       </c>
       <c r="G36">
-        <f>MIN(G2:G31)</f>
+        <f t="shared" si="6"/>
         <v>-0.90253312708900002</v>
       </c>
       <c r="H36">
-        <f>MIN(H2:H31)</f>
+        <f t="shared" si="6"/>
         <v>0.76863999999999999</v>
       </c>
       <c r="I36">
-        <f>MIN(I2:I31)</f>
+        <f t="shared" si="6"/>
         <v>-3.3744513999999999</v>
       </c>
       <c r="J36">
-        <f>MIN(J2:J31)</f>
+        <f t="shared" si="6"/>
         <v>-0.474094793003</v>
       </c>
       <c r="K36">
-        <f>MIN(K2:K31)</f>
+        <f t="shared" si="6"/>
         <v>0.515753448276</v>
       </c>
       <c r="L36">
-        <f>MIN(L2:L31)</f>
+        <f t="shared" si="6"/>
         <v>-3.01641957</v>
       </c>
       <c r="M36">
-        <f>MIN(M2:M31)</f>
+        <f t="shared" si="6"/>
         <v>-0.52056428566000001</v>
       </c>
       <c r="N36">
-        <f>MIN(N2:N31)</f>
+        <f t="shared" si="6"/>
         <v>0.56539285714300003</v>
       </c>
       <c r="O36">
-        <f>MIN(O2:O31)</f>
+        <f t="shared" si="6"/>
         <v>-6.9072644199999997</v>
       </c>
       <c r="P36">
-        <f>MIN(P2:P31)</f>
+        <f t="shared" si="6"/>
         <v>0.52601652827099998</v>
       </c>
       <c r="Q36">
-        <f>MIN(Q2:Q31)</f>
+        <f t="shared" si="6"/>
         <v>0.60801818181800005</v>
+      </c>
+      <c r="R36">
+        <f t="shared" ref="R36:AE36" si="7">MIN(R2:R31)</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="7"/>
+        <v>6.1523439999999999E-2</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="7"/>
+        <v>2.9296875E-3</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="7"/>
+        <v>0.265625</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="7"/>
+        <v>2.734375E-2</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="7"/>
+        <v>0.12011719</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="7"/>
+        <v>0.171875</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="7"/>
+        <v>2.0068359400000002</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="7"/>
+        <v>5.859375E-2</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="7"/>
+        <v>0.41796875</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="7"/>
+        <v>3.515625E-2</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="7"/>
+        <v>5.85938E-3</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="7"/>
+        <v>0.52832031000000002</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" si="7"/>
+        <v>1.269531E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
+      <c r="A38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
+      <c r="A39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="2">
+        <v>-2.8529825899999999</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="2">
+        <v>-0.63032254300000001</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.67703145200000003</v>
+      </c>
+      <c r="F39" s="2">
+        <v>-1.0920474</v>
+      </c>
+      <c r="G39" s="2">
+        <v>-0.89307020500000001</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.77051000000000003</v>
+      </c>
+      <c r="I39" s="2">
+        <v>-2.6619967500000001</v>
+      </c>
+      <c r="J39" s="2">
+        <v>-0.46984420300000002</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0.51704827600000003</v>
+      </c>
+      <c r="L39" s="2">
+        <v>-2.2658976399999999</v>
+      </c>
+      <c r="M39" s="2">
+        <v>-0.50218569800000001</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0.57773928600000002</v>
+      </c>
+      <c r="O39" s="2">
+        <v>-5.3919885499999998</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0.57177306299999997</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>0.62032363599999996</v>
+      </c>
+      <c r="R39" s="2">
+        <v>2.4375</v>
+      </c>
+      <c r="S39" s="2">
+        <v>3.0361328099999998</v>
+      </c>
+      <c r="T39" s="2">
+        <v>3.11523438</v>
+      </c>
+      <c r="U39" s="2">
+        <v>2.2998046900000002</v>
+      </c>
+      <c r="V39" s="2">
+        <v>3.32421875</v>
+      </c>
+      <c r="W39" s="2">
+        <v>3.3154296900000002</v>
+      </c>
+      <c r="X39" s="2">
+        <v>1.47363281</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>3.80664062</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>2.2265625</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>0.97753906000000002</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>1.19921875</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>1.953125E-2</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>1.35644531</v>
+      </c>
+      <c r="AE39" s="2">
+        <v>0.20703125</v>
       </c>
     </row>
   </sheetData>
